--- a/new_with_data.xlsx
+++ b/new_with_data.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="number">Sheet1!$C$7</definedName>
+    <definedName name="number2">Sheet1!$O$7</definedName>
     <definedName name="stringa">Sheet1!$H$8:$H$11</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1" concurrentManualCount="8"/>
@@ -447,10 +448,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -463,8 +464,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="n">
-        <v>56</v>
+      <c r="C7">
+        <f>45+54</f>
+        <v/>
+      </c>
+      <c r="O7">
+        <f>number</f>
+        <v/>
       </c>
     </row>
     <row r="8">
